--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$3:$B$53</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>LLR_FIRST</t>
   </si>
@@ -61,6 +65,14 @@
   </si>
   <si>
     <t>source_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7956,4 +7968,564 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <f>FREQUENCY($B$3:$B$53,D3)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM($E$3:E3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <f>FREQUENCY($B$3:$B$53,D4)-F3</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>SUM($E$3:E4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E27" si="0">FREQUENCY($B$3:$B$53,D5)-F4</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUM($E$3:E5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <f>SUM($E$3:E6)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <f>SUM($E$3:E7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f>SUM($E$3:E8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f>SUM($E$3:E9)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUM($E$3:E10)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f>SUM($E$3:E11)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM($E$3:E12)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>110</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM($E$3:E13)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>120</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f>SUM($E$3:E14)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1">
+        <v>130</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM($E$3:E15)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f>SUM($E$3:E16)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f>SUM($E$3:E17)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>160</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f>SUM($E$3:E18)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>170</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <f>SUM($E$3:E19)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>180</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f>SUM($E$3:E20)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>190</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f>SUM($E$3:E21)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>200</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <f>SUM($E$3:E22)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>210</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f>SUM($E$3:E23)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1">
+        <v>220</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUM($E$3:E24)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>230</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f>SUM($E$3:E25)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>240</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <f>SUM($E$3:E26)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f>SUM($E$3:E27)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>